--- a/data/video_information.xlsx
+++ b/data/video_information.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="66">
   <si>
     <t xml:space="preserve">name raw video</t>
   </si>
@@ -91,46 +91,28 @@
     <t xml:space="preserve">BasketballDrill</t>
   </si>
   <si>
-    <t xml:space="preserve">12 video</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4k</t>
-  </si>
-  <si>
     <t xml:space="preserve">BasketballDrive_1920x1080_50.yuv</t>
   </si>
   <si>
     <t xml:space="preserve">BasketballDrive</t>
   </si>
   <si>
-    <t xml:space="preserve">1080p</t>
-  </si>
-  <si>
     <t xml:space="preserve">BasketballPass_416x240_50.yuv</t>
   </si>
   <si>
     <t xml:space="preserve">BasketballPass</t>
   </si>
   <si>
-    <t xml:space="preserve">720p</t>
-  </si>
-  <si>
     <t xml:space="preserve">BlowingBubbles_416x240_50.yuv</t>
   </si>
   <si>
     <t xml:space="preserve">BlowingBubbles</t>
   </si>
   <si>
-    <t xml:space="preserve">480p</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cactus_1920x1080_50.yuv</t>
   </si>
   <si>
     <t xml:space="preserve">Cactus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">240p</t>
   </si>
   <si>
     <t xml:space="preserve">Campfire_3840x2160_30fps_bt709_420_videoRange.yuv</t>
@@ -242,10 +224,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-    <numFmt numFmtId="166" formatCode="General"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -344,7 +324,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -381,24 +361,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -478,10 +446,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P27"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
+      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -492,7 +460,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="7.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14.16"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1016" min="7" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -540,13 +508,6 @@
       <c r="G2" s="8" t="n">
         <v>600</v>
       </c>
-      <c r="H2" s="9" t="n">
-        <v>600</v>
-      </c>
-      <c r="I2" s="10" t="n">
-        <f aca="false">H2=G2</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
@@ -570,13 +531,6 @@
       <c r="G3" s="8" t="n">
         <v>600</v>
       </c>
-      <c r="H3" s="9" t="n">
-        <v>601</v>
-      </c>
-      <c r="I3" s="10" t="n">
-        <f aca="false">H3=G3</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
@@ -600,13 +554,6 @@
       <c r="G4" s="8" t="n">
         <v>600</v>
       </c>
-      <c r="H4" s="9" t="n">
-        <v>601</v>
-      </c>
-      <c r="I4" s="10" t="n">
-        <f aca="false">H4=G4</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
@@ -630,13 +577,6 @@
       <c r="G5" s="8" t="n">
         <v>600</v>
       </c>
-      <c r="H5" s="9" t="n">
-        <v>601</v>
-      </c>
-      <c r="I5" s="10" t="n">
-        <f aca="false">H5=G5</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
@@ -660,13 +600,6 @@
       <c r="G6" s="8" t="n">
         <v>500</v>
       </c>
-      <c r="H6" s="9" t="n">
-        <v>501</v>
-      </c>
-      <c r="I6" s="10" t="n">
-        <f aca="false">H6=G6</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
@@ -687,35 +620,16 @@
       <c r="F7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="11" t="n">
+      <c r="G7" s="9" t="n">
         <v>500</v>
-      </c>
-      <c r="H7" s="1" t="n">
-        <v>501</v>
-      </c>
-      <c r="I7" s="10" t="n">
-        <f aca="false">H7=G7</f>
-        <v>0</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O7" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="P7" s="1" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C8" s="6" t="n">
         <v>2</v>
@@ -729,32 +643,16 @@
       <c r="F8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="11" t="n">
+      <c r="G8" s="9" t="n">
         <v>500</v>
-      </c>
-      <c r="H8" s="1" t="n">
-        <v>501</v>
-      </c>
-      <c r="I8" s="10" t="n">
-        <f aca="false">H8=G8</f>
-        <v>0</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O8" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="P8" s="1" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C9" s="6" t="n">
         <v>5</v>
@@ -768,32 +666,16 @@
       <c r="F9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="11" t="n">
+      <c r="G9" s="9" t="n">
         <v>500</v>
-      </c>
-      <c r="H9" s="1" t="n">
-        <v>501</v>
-      </c>
-      <c r="I9" s="10" t="n">
-        <f aca="false">H9=G9</f>
-        <v>0</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O9" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C10" s="6" t="n">
         <v>5</v>
@@ -807,32 +689,16 @@
       <c r="F10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="11" t="n">
+      <c r="G10" s="9" t="n">
         <v>500</v>
-      </c>
-      <c r="H10" s="1" t="n">
-        <v>501</v>
-      </c>
-      <c r="I10" s="10" t="n">
-        <f aca="false">H10=G10</f>
-        <v>0</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O10" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="P10" s="1" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C11" s="6" t="n">
         <v>2</v>
@@ -846,166 +712,114 @@
       <c r="F11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="11" t="n">
+      <c r="G11" s="9" t="n">
         <v>500</v>
-      </c>
-      <c r="H11" s="1" t="n">
-        <v>500</v>
-      </c>
-      <c r="I11" s="10" t="n">
-        <f aca="false">H11=G11</f>
-        <v>1</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="O11" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="P11" s="1" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C12" s="6" t="n">
         <v>1</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E12" s="6" t="n">
         <v>30</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G12" s="11" t="n">
+        <v>34</v>
+      </c>
+      <c r="G12" s="9" t="n">
         <v>300</v>
-      </c>
-      <c r="H12" s="1" t="n">
-        <v>300</v>
-      </c>
-      <c r="I12" s="10" t="n">
-        <f aca="false">H12=G12</f>
-        <v>1</v>
-      </c>
-      <c r="O12" s="1" t="n">
-        <f aca="false">SUM(O7:O11)</f>
-        <v>12</v>
-      </c>
-      <c r="P12" s="1" t="n">
-        <f aca="false">SUM(P7:P11)</f>
-        <v>14</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C13" s="6" t="n">
         <v>1</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>60</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G13" s="11" t="n">
+        <v>34</v>
+      </c>
+      <c r="G13" s="9" t="n">
         <v>300</v>
-      </c>
-      <c r="H13" s="1" t="n">
-        <v>300</v>
-      </c>
-      <c r="I13" s="10" t="n">
-        <f aca="false">H13=G13</f>
-        <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C14" s="6" t="n">
         <v>1</v>
       </c>
       <c r="D14" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>60</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="9" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="6" t="n">
-        <v>60</v>
-      </c>
-      <c r="F14" s="8" t="s">
+      <c r="B15" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="G14" s="11" t="n">
-        <v>300</v>
-      </c>
-      <c r="H14" s="1" t="n">
-        <v>600</v>
-      </c>
-      <c r="I14" s="10" t="n">
-        <f aca="false">H14=G14</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>46</v>
       </c>
       <c r="C15" s="6" t="n">
         <v>1</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E15" s="6" t="n">
         <v>60</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" s="11" t="n">
+        <v>34</v>
+      </c>
+      <c r="G15" s="9" t="n">
         <v>300</v>
       </c>
-      <c r="H15" s="1" t="n">
-        <v>720</v>
-      </c>
-      <c r="I15" s="10" t="n">
-        <f aca="false">H15=G15</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="16" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="12" t="s">
-        <v>47</v>
+      <c r="A16" s="10" t="s">
+        <v>41</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C16" s="6" t="n">
         <v>3</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E16" s="6" t="n">
         <v>60</v>
@@ -1013,29 +827,22 @@
       <c r="F16" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="11" t="n">
+      <c r="G16" s="9" t="n">
         <v>600</v>
       </c>
-      <c r="H16" s="1" t="n">
-        <v>600</v>
-      </c>
-      <c r="I16" s="10" t="n">
-        <f aca="false">H16=G16</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="17" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="12" t="s">
-        <v>50</v>
+      <c r="A17" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C17" s="6" t="n">
         <v>3</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E17" s="6" t="n">
         <v>60</v>
@@ -1043,53 +850,39 @@
       <c r="F17" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G17" s="11" t="n">
+      <c r="G17" s="9" t="n">
         <v>600</v>
       </c>
-      <c r="H17" s="1" t="n">
-        <v>600</v>
-      </c>
-      <c r="I17" s="10" t="n">
-        <f aca="false">H17=G17</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="18" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="12" t="s">
-        <v>52</v>
+      <c r="A18" s="10" t="s">
+        <v>46</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C18" s="6" t="n">
         <v>3</v>
       </c>
       <c r="D18" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="6" t="n">
+        <v>60</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="9" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="E18" s="6" t="n">
-        <v>60</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" s="11" t="n">
-        <v>600</v>
-      </c>
-      <c r="H18" s="1" t="n">
-        <v>600</v>
-      </c>
-      <c r="I18" s="10" t="n">
-        <f aca="false">H18=G18</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>55</v>
       </c>
       <c r="C19" s="6" t="n">
         <v>2</v>
@@ -1101,55 +894,41 @@
         <v>60</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G19" s="11" t="n">
+        <v>34</v>
+      </c>
+      <c r="G19" s="9" t="n">
         <v>600</v>
       </c>
-      <c r="H19" s="1" t="n">
-        <v>600</v>
-      </c>
-      <c r="I19" s="10" t="n">
-        <f aca="false">H19=G19</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="20" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="12" t="s">
-        <v>56</v>
+      <c r="A20" s="10" t="s">
+        <v>50</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C20" s="6" t="n">
         <v>1</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E20" s="6" t="n">
         <v>50</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G20" s="11" t="n">
+        <v>34</v>
+      </c>
+      <c r="G20" s="9" t="n">
         <v>300</v>
       </c>
-      <c r="H20" s="1" t="n">
-        <v>500</v>
-      </c>
-      <c r="I20" s="10" t="n">
-        <f aca="false">H20=G20</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="21" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="12" t="s">
-        <v>58</v>
+      <c r="A21" s="10" t="s">
+        <v>52</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C21" s="6" t="n">
         <v>4</v>
@@ -1163,23 +942,16 @@
       <c r="F21" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G21" s="11" t="n">
+      <c r="G21" s="9" t="n">
         <v>500</v>
       </c>
-      <c r="H21" s="1" t="n">
-        <v>501</v>
-      </c>
-      <c r="I21" s="10" t="n">
-        <f aca="false">H21=G21</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="22" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="12" t="s">
-        <v>60</v>
+      <c r="A22" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C22" s="6" t="n">
         <v>5</v>
@@ -1193,23 +965,16 @@
       <c r="F22" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G22" s="11" t="n">
+      <c r="G22" s="9" t="n">
         <v>300</v>
       </c>
-      <c r="H22" s="1" t="n">
-        <v>300</v>
-      </c>
-      <c r="I22" s="10" t="n">
-        <f aca="false">H22=G22</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="23" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="12" t="s">
-        <v>62</v>
+      <c r="A23" s="10" t="s">
+        <v>56</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C23" s="6" t="n">
         <v>4</v>
@@ -1223,23 +988,16 @@
       <c r="F23" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G23" s="11" t="n">
+      <c r="G23" s="9" t="n">
         <v>300</v>
       </c>
-      <c r="H23" s="1" t="n">
-        <v>300</v>
-      </c>
-      <c r="I23" s="10" t="n">
-        <f aca="false">H23=G23</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="24" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="12" t="s">
-        <v>64</v>
+      <c r="A24" s="10" t="s">
+        <v>58</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C24" s="6" t="n">
         <v>2</v>
@@ -1251,31 +1009,24 @@
         <v>60</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G24" s="11" t="n">
+        <v>34</v>
+      </c>
+      <c r="G24" s="9" t="n">
         <v>600</v>
       </c>
-      <c r="H24" s="1" t="n">
-        <v>600</v>
-      </c>
-      <c r="I24" s="10" t="n">
-        <f aca="false">H24=G24</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="25" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="12" t="s">
-        <v>66</v>
+      <c r="A25" s="10" t="s">
+        <v>60</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C25" s="6" t="n">
         <v>3</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>30</v>
@@ -1283,29 +1034,22 @@
       <c r="F25" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G25" s="11" t="n">
+      <c r="G25" s="9" t="n">
         <v>300</v>
       </c>
-      <c r="H25" s="1" t="n">
-        <v>300</v>
-      </c>
-      <c r="I25" s="10" t="n">
-        <f aca="false">H25=G25</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="26" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="12" t="s">
-        <v>68</v>
+      <c r="A26" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C26" s="6" t="n">
         <v>3</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E26" s="6" t="n">
         <v>20</v>
@@ -1313,45 +1057,31 @@
       <c r="F26" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G26" s="11" t="n">
+      <c r="G26" s="9" t="n">
         <v>500</v>
-      </c>
-      <c r="H26" s="1" t="n">
-        <v>500</v>
-      </c>
-      <c r="I26" s="10" t="n">
-        <f aca="false">H26=G26</f>
-        <v>1</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C27" s="6" t="n">
         <v>1</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E27" s="6" t="n">
         <v>60</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G27" s="11" t="n">
+        <v>34</v>
+      </c>
+      <c r="G27" s="9" t="n">
         <v>294</v>
-      </c>
-      <c r="H27" s="1" t="n">
-        <v>294</v>
-      </c>
-      <c r="I27" s="13" t="b">
-        <f aca="false">H27=G27</f>
-        <v>1</v>
       </c>
     </row>
   </sheetData>
